--- a/Проект/Денис/биилля вай эксель.xlsx
+++ b/Проект/Денис/биилля вай эксель.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docrepo\Проект\Денис\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC4E1B0-0F0B-498A-B51A-B94900F4F4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC724B-DB74-45C0-9A1A-E0982FF22753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,13 +46,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -99,13 +107,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,79 +411,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1.8</v>
       </c>
       <c r="C1" s="1">
         <v>2747</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="6">
+        <v>7630</v>
+      </c>
+      <c r="G1" s="3">
+        <v>8830</v>
+      </c>
+      <c r="J1" s="8">
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3.2</v>
       </c>
       <c r="C2" s="2">
         <v>1162</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="5">
+        <v>9430</v>
+      </c>
+      <c r="G2" s="4">
+        <v>460</v>
+      </c>
+      <c r="J2" s="2">
+        <v>11559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>6.6</v>
       </c>
       <c r="C3" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="5">
+        <v>1370</v>
+      </c>
+      <c r="G3" s="4">
+        <v>200</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>1372</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="5">
+        <v>3400</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1330</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>9.4</v>
       </c>
       <c r="C5" s="2">
         <v>470</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="5">
+        <v>850</v>
+      </c>
+      <c r="G5" s="4">
+        <v>125</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10.8</v>
       </c>
       <c r="C6" s="2">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12.2</v>
       </c>
       <c r="C7" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <v>15500</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G1:G5)</f>
+        <v>10945</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J1:J6)</f>
+        <v>31415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>5979.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2.6</v>
       </c>
@@ -467,32 +553,48 @@
         <f>SUM(C1:C8)</f>
         <v>11849.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f>SUM(E1:E9)</f>
+        <v>45780</v>
+      </c>
+      <c r="G10">
+        <f>G7+E10</f>
+        <v>56725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>SUM(A1:A13)</f>
         <v>103.8</v>
       </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
